--- a/DatosCreditos.xlsx
+++ b/DatosCreditos.xlsx
@@ -8,23 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodos\Documents\ITESO\7MO sEMESTRE\Simulacion de Procesos Financieros\Tareas_RSlay_LMRamirez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE8119C-CB8F-476C-AA5A-9BAF30DE07C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F20B92-60A3-4D3E-BC09-1CE17F0ED450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F56885B-B33A-4EB6-B206-0DE68A160060}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{1F56885B-B33A-4EB6-B206-0DE68A160060}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$G$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$G$2:$G$651</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$C$2:$C$651</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$A$2:$A$651</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$G$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$G$2:$G$682</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -436,7 +426,7 @@
   <dimension ref="A1:K651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
